--- a/Analytics/I1/ShirtsXbookings_i1.xlsx
+++ b/Analytics/I1/ShirtsXbookings_i1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TShirtsXbookings")</t>
   </si>
   <si>
-    <t>SUM("TShirtsXbookings") / 38</t>
+    <t>SUM("TShirtsXbookings") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>110230.0</v>
+        <v>33510.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>82815.0</v>
+        <v>33280.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>82495.0</v>
+        <v>29300.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>80395.0</v>
+        <v>26835.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>67785.0</v>
+        <v>23995.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>64570.0</v>
+        <v>22385.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>62100.0</v>
+        <v>21995.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>59610.0</v>
+        <v>19565.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>57590.0</v>
+        <v>19490.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>53580.0</v>
+        <v>18140.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>46875.0</v>
+        <v>16480.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>43680.0</v>
+        <v>15580.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>43240.0</v>
+        <v>14280.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>41360.0</v>
+        <v>12895.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>38890.0</v>
+        <v>12400.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>35860.0</v>
+        <v>11365.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>33895.0</v>
+        <v>8935.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>30710.0</v>
+        <v>8190.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>28350.0</v>
+        <v>7295.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>22995.0</v>
+        <v>5060.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>85460.0</v>
+        <v>34805.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>70090.0</v>
+        <v>34710.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>66565.0</v>
+        <v>32020.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>65850.0</v>
+        <v>27135.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>60505.0</v>
+        <v>25620.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>60445.0</v>
+        <v>22815.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>58835.0</v>
+        <v>20055.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>56220.0</v>
+        <v>18750.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>55225.0</v>
+        <v>18495.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>53775.0</v>
+        <v>18420.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>50660.0</v>
+        <v>16810.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>50275.0</v>
+        <v>16260.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>48945.0</v>
+        <v>14065.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>45365.0</v>
+        <v>13660.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>44990.0</v>
+        <v>12370.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>44770.0</v>
+        <v>11580.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>44560.0</v>
+        <v>7300.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>44070.0</v>
+        <v>5920.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>41240.0</v>
+        <v>5485.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>39180.0</v>
+        <v>4700.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>176080.0</v>
+        <v>56095.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4633.684210526316</v>
+        <v>5099.545454545455</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>146960.0</v>
+        <v>53565.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3867.3684210526317</v>
+        <v>4869.545454545455</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>136270.0</v>
+        <v>52850.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3586.0526315789475</v>
+        <v>4804.545454545455</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>133090.0</v>
+        <v>49085.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3502.3684210526317</v>
+        <v>4462.272727272727</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>118320.0</v>
+        <v>46700.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3113.684210526316</v>
+        <v>4245.454545454545</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>116965.0</v>
+        <v>45585.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3078.0263157894738</v>
+        <v>4144.090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>116730.0</v>
+        <v>45110.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3071.842105263158</v>
+        <v>4100.909090909091</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>116170.0</v>
+        <v>43385.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3057.1052631578946</v>
+        <v>3944.090909090909</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>114835.0</v>
+        <v>41670.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3021.9736842105262</v>
+        <v>3788.181818181818</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>114025.0</v>
+        <v>39195.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3000.657894736842</v>
+        <v>3563.181818181818</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>105810.0</v>
+        <v>33575.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2784.4736842105262</v>
+        <v>3052.2727272727275</v>
       </c>
     </row>
     <row r="13">
@@ -857,10 +857,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>104185.0</v>
+        <v>29645.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2741.7105263157896</v>
+        <v>2695.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>102580.0</v>
+        <v>29480.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2699.4736842105262</v>
+        <v>2680.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>94695.0</v>
+        <v>27430.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2491.9736842105262</v>
+        <v>2493.6363636363635</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>92020.0</v>
+        <v>24450.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2421.5789473684213</v>
+        <v>2222.7272727272725</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>87800.0</v>
+        <v>23480.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2310.5263157894738</v>
+        <v>2134.5454545454545</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>83660.0</v>
+        <v>22400.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2201.5789473684213</v>
+        <v>2036.3636363636363</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>73715.0</v>
+        <v>20955.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1939.8684210526317</v>
+        <v>1905.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>73075.0</v>
+        <v>20195.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1923.0263157894738</v>
+        <v>1835.909090909091</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>67065.0</v>
+        <v>17100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1764.8684210526317</v>
+        <v>1554.5454545454545</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/ShirtsXbookings_i1.xlsx
+++ b/Analytics/I1/ShirtsXbookings_i1.xlsx
@@ -85,55 +85,55 @@
     <t>Parma</t>
   </si>
   <si>
+    <t>Verona</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Monza</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>Lecce</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>Milan</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Inter</t>
   </si>
   <si>
+    <t>Genoa</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
     <t>Venezia</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Roma</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>33510.0</v>
+        <v>52980.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>33280.0</v>
+        <v>41320.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>29300.0</v>
+        <v>34895.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>26835.0</v>
+        <v>31125.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>23995.0</v>
+        <v>29425.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>22385.0</v>
+        <v>29005.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>21995.0</v>
+        <v>28240.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>19565.0</v>
+        <v>25170.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>19490.0</v>
+        <v>24095.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>18140.0</v>
+        <v>23785.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>16480.0</v>
+        <v>23715.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>15580.0</v>
+        <v>23225.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>14280.0</v>
+        <v>19040.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>12895.0</v>
+        <v>18960.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>12400.0</v>
+        <v>18560.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>11365.0</v>
+        <v>15610.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>8935.0</v>
+        <v>15160.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>8190.0</v>
+        <v>14375.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>7295.0</v>
+        <v>8715.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>5060.0</v>
+        <v>6860.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>34805.0</v>
+        <v>42870.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>34710.0</v>
+        <v>37265.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>32020.0</v>
+        <v>36985.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>27135.0</v>
+        <v>36360.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>25620.0</v>
+        <v>31935.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>22815.0</v>
+        <v>31630.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>20055.0</v>
+        <v>30670.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>18750.0</v>
+        <v>26880.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>18495.0</v>
+        <v>25365.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>18420.0</v>
+        <v>23285.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>16810.0</v>
+        <v>22750.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>16260.0</v>
+        <v>22610.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>14065.0</v>
+        <v>22050.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>13660.0</v>
+        <v>21210.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>12370.0</v>
+        <v>17475.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>11580.0</v>
+        <v>15540.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>7300.0</v>
+        <v>14305.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>5920.0</v>
+        <v>8800.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>5485.0</v>
+        <v>8375.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>4700.0</v>
+        <v>7900.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>56095.0</v>
+        <v>76265.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5099.545454545455</v>
+        <v>6933.181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>53565.0</v>
+        <v>72160.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4869.545454545455</v>
+        <v>6560.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>52850.0</v>
+        <v>68040.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4804.545454545455</v>
+        <v>6185.454545454545</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>49085.0</v>
+        <v>63930.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4462.272727272727</v>
+        <v>5811.818181818182</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>46700.0</v>
+        <v>56305.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4245.454545454545</v>
+        <v>5118.636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>45585.0</v>
+        <v>54385.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4144.090909090909</v>
+        <v>4944.090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>45110.0</v>
+        <v>53175.0</v>
       </c>
       <c r="D8" t="n">
-        <v>4100.909090909091</v>
+        <v>4834.090909090909</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>43385.0</v>
+        <v>52145.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3944.090909090909</v>
+        <v>4740.454545454545</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>41670.0</v>
+        <v>50990.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3788.181818181818</v>
+        <v>4635.454545454545</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>39195.0</v>
+        <v>50735.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3563.181818181818</v>
+        <v>4612.272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>33575.0</v>
+        <v>44995.0</v>
       </c>
       <c r="D12" t="n">
-        <v>3052.2727272727275</v>
+        <v>4090.4545454545455</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>29645.0</v>
+        <v>43310.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2695.0</v>
+        <v>3937.2727272727275</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>29480.0</v>
+        <v>40975.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2680.0</v>
+        <v>3725.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>27430.0</v>
+        <v>40650.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2493.6363636363635</v>
+        <v>3695.4545454545455</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>24450.0</v>
+        <v>38765.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2222.7272727272725</v>
+        <v>3524.090909090909</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>23480.0</v>
+        <v>38490.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2134.5454545454545</v>
+        <v>3499.090909090909</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>22400.0</v>
+        <v>36035.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2036.3636363636363</v>
+        <v>3275.909090909091</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>20955.0</v>
+        <v>32895.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1905.0</v>
+        <v>2990.4545454545455</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>20195.0</v>
+        <v>27335.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1835.909090909091</v>
+        <v>2485.0</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>17100.0</v>
+        <v>26940.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1554.5454545454545</v>
+        <v>2449.090909090909</v>
       </c>
     </row>
   </sheetData>
